--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>75.51</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>33.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>33.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -1055,12 +1055,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.74</v>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1988</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3206</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>78.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1437</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -675,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2162</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -713,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -751,35 +757,73 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1040,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,7 +1105,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1091,32 +1135,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0704</t>
+          <t>1.3206</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1129,36 +1173,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.26</t>
+          <t>75.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>1.1437</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1167,36 +1211,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.2162</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1205,36 +1249,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1243,73 +1287,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1324,96 +1330,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600737-中粮糖业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.62</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.74</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,252 +974,6 @@
       </c>
       <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1910</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3370</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>34.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1145,26 +1048,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>84.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3206</t>
+          <t>1.1910</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1173,36 +1076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>87.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1437</t>
+          <t>0.3370</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1211,36 +1114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2162</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1249,32 +1152,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>97.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1297,17 +1200,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1316,7 +1219,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1325,6 +1228,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
